--- a/cursos_profesores.xlsx
+++ b/cursos_profesores.xlsx
@@ -6,21 +6,83 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CursosInscritos" r:id="rId3" sheetId="1"/>
+    <sheet name="CursosProfesores" r:id="rId3" sheetId="1"/>
+    <sheet name="Personas" r:id="rId4" sheetId="2"/>
+    <sheet name="CursosInscritos" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Curso</t>
   </si>
   <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>Profesor</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>matematicas</t>
+  </si>
+  <si>
+    <t>enfermeria</t>
+  </si>
+  <si>
+    <t>maria camila guevara ramirez</t>
+  </si>
+  <si>
+    <t>Programación Avanzada</t>
+  </si>
+  <si>
+    <t>ingeneri de sistemas</t>
+  </si>
+  <si>
+    <t>juan jose perez aroza</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>juan jose</t>
+  </si>
+  <si>
+    <t>perez aroza</t>
+  </si>
+  <si>
+    <t>jose@mail.com</t>
+  </si>
+  <si>
+    <t>maria camila</t>
+  </si>
+  <si>
+    <t>guevara ramirez</t>
+  </si>
+  <si>
+    <t>maria@mail.com</t>
+  </si>
+  <si>
     <t>Estudiante</t>
   </si>
   <si>
-    <t>Programa</t>
+    <t>null null</t>
   </si>
 </sst>
 </file>
@@ -65,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,6 +143,147 @@
       <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>2012.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>2020.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
